--- a/LAIS.xlsx
+++ b/LAIS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lais Nascimento\Desktop\5-semestre\Transferência de Calor e Mecânica dos Sólidos\APS4-mecsol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\Documents\Insper\5semestre\Tranferência de calor e mecânica dos sólidos\APS4-mecsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1459B3CB-4FAF-4CC8-B552-9F8587647F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB714A-E774-4DA9-B8DE-FD3DE0BD46D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="20490" windowHeight="10905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
         <v>4000000000</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="7">
@@ -738,7 +738,7 @@
         <v>4000000000</v>
       </c>
       <c r="D3" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -755,7 +755,7 @@
         <v>4000000000</v>
       </c>
       <c r="D4" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
         <v>4000000000</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>4000000000</v>
       </c>
       <c r="D6" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,7 +797,7 @@
         <v>4000000000</v>
       </c>
       <c r="D7" s="15">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -812,7 +812,7 @@
         <v>4000000000</v>
       </c>
       <c r="D8" s="15">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>4000000000</v>
       </c>
       <c r="D9" s="15">
-        <v>2.5000000000000001E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>4000000000</v>
       </c>
       <c r="D10" s="15">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>4000000000</v>
       </c>
       <c r="D11" s="15">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,8 +867,8 @@
       <c r="C12" s="3">
         <v>4000000000</v>
       </c>
-      <c r="D12" s="3">
-        <v>3.0000000000000001E-5</v>
+      <c r="D12" s="15">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>4000000000</v>
       </c>
       <c r="D13" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>1E-8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>4000000000</v>
       </c>
       <c r="D14" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>4000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>4000000000</v>
       </c>
       <c r="D16" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>3.0000000000000001E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>4000000000</v>
       </c>
       <c r="D17" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>7.9999999999999996E-7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>4000000000</v>
       </c>
       <c r="D18" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>4000000000</v>
       </c>
       <c r="D19" s="3">
-        <v>3.0000000000000001E-5</v>
+        <v>6.9999999999999997E-7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>4000000000</v>
       </c>
       <c r="D20" s="13">
-        <v>1.2E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>4000000000</v>
       </c>
       <c r="D21" s="13">
-        <v>1.2E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>4000000000</v>
       </c>
       <c r="D22" s="13">
-        <v>1.2E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>4000000000</v>
       </c>
       <c r="D23" s="13">
-        <v>1.2E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>4000000000</v>
       </c>
       <c r="D24" s="13">
-        <v>1.2E-4</v>
+        <v>3.5E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>4000000000</v>
       </c>
       <c r="D25" s="13">
-        <v>1.2E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
   </sheetData>
